--- a/l_Calendar_2018-12-08.xlsx
+++ b/l_Calendar_2018-12-08.xlsx
@@ -12,7 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
   <si>
     <t>2018-12-8</t>
   </si>
@@ -54,6 +69,24 @@
   </si>
   <si>
     <t>548</t>
+  </si>
+  <si>
+    <t>2018-12-18</t>
+  </si>
+  <si>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>2018-12-19</t>
+  </si>
+  <si>
+    <t>787</t>
   </si>
 </sst>
 </file>
@@ -98,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,53 +156,104 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/l_Calendar_2018-12-08.xlsx
+++ b/l_Calendar_2018-12-08.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>2018-12-8</t>
   </si>
@@ -27,6 +27,24 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>TEsting2</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>Tesiting3</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1388</t>
   </si>
 </sst>
 </file>
@@ -71,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,6 +112,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
